--- a/PROJECT DOCUMENTATION/ProjectTasks.xlsx
+++ b/PROJECT DOCUMENTATION/ProjectTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\FinalProject-MachineLearning\PROJECT DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B51D6-2013-4BD0-B63C-000FE692B322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC40086-BD59-43B9-AA01-570C5A3B326A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="819" activeTab="3" xr2:uid="{D18BDD5F-B66E-45B0-BA1A-DB6C8378216C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="819" xr2:uid="{D18BDD5F-B66E-45B0-BA1A-DB6C8378216C}"/>
   </bookViews>
   <sheets>
     <sheet name="TASKS" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="MACHINE LEARNING" sheetId="13" r:id="rId13"/>
     <sheet name="FLASK ROUTES" sheetId="14" r:id="rId14"/>
     <sheet name="GIT Repository" sheetId="15" r:id="rId15"/>
+    <sheet name="PRESENTATION" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>TASK</t>
   </si>
@@ -218,6 +219,159 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Identify all the data needing storage for the WEBSITE and Visualizations</t>
+  </si>
+  <si>
+    <t>Create joins on all the data needed to go into each table</t>
+  </si>
+  <si>
+    <t>Combine the data into each unique table</t>
+  </si>
+  <si>
+    <t>Validate the data does not contain duplications or unexpected nulls as a result</t>
+  </si>
+  <si>
+    <t>Document the combinations for reference</t>
+  </si>
+  <si>
+    <t>Identify all the data needing storage for the Machine learning tasks</t>
+  </si>
+  <si>
+    <t>Coordinate the input of data into the data base</t>
+  </si>
+  <si>
+    <t>Communicate tables and data needed so that the schema can be defined and built</t>
+  </si>
+  <si>
+    <t>Create a DRAFT ERD for use as the data is being gathered</t>
+  </si>
+  <si>
+    <t>Once all data is gathered, cleaned, combined and ready</t>
+  </si>
+  <si>
+    <t>Build the final ERD based on the end needs of the data</t>
+  </si>
+  <si>
+    <t>Document the ERD formally and communicate to the team</t>
+  </si>
+  <si>
+    <t>Once all the schema is build and the database is ready, begin to import all the data</t>
+  </si>
+  <si>
+    <t>once all the data is imported, validate all the data</t>
+  </si>
+  <si>
+    <t>Identify any data that needs to be imported via API or on the fly</t>
+  </si>
+  <si>
+    <t>Document and communicate to the team, once the data base is complete with data</t>
+  </si>
+  <si>
+    <t>after consultation with the team, keep documenting and narrowing down the set of questions that the machine learning and visualizations will ask</t>
+  </si>
+  <si>
+    <t>Keep good documentation on any changes in the focus of the story</t>
+  </si>
+  <si>
+    <t>Be sure to document the final questions, and review all the story and data to be sure we answered the questions</t>
+  </si>
+  <si>
+    <t>Begin to review all the data available and decide what we can reflect in visualizations</t>
+  </si>
+  <si>
+    <t>Once the data is cleaned, start the process of creating visualizations</t>
+  </si>
+  <si>
+    <t>document the names, technologies, and context of all the visualizations</t>
+  </si>
+  <si>
+    <t>Share the locations and access of the visualizations to all the team members</t>
+  </si>
+  <si>
+    <t>Define how we will access these visualizations in the web site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw / create a draft version </t>
+  </si>
+  <si>
+    <t>Create the basic HTML</t>
+  </si>
+  <si>
+    <t>Create the basic CSS</t>
+  </si>
+  <si>
+    <t>Test the basic HTML and CSS</t>
+  </si>
+  <si>
+    <t>As the project progresses, build what is needed to support the vision and story we want to tell</t>
+  </si>
+  <si>
+    <t>Document everything within &lt;!comments&gt; and in the project documents, links etc… and final credits</t>
+  </si>
+  <si>
+    <t>Define the Machine learning we can accomplish with the data that we have</t>
+  </si>
+  <si>
+    <t>Define the data needed and how the data will be imported into the models</t>
+  </si>
+  <si>
+    <t>Define how the web site will work with the machine learning</t>
+  </si>
+  <si>
+    <t>Work with the web site development to coordinate output</t>
+  </si>
+  <si>
+    <t>Work with the database development to coordinate input</t>
+  </si>
+  <si>
+    <t>work with the data cleaning and prepping to coorindate data needed</t>
+  </si>
+  <si>
+    <t>Build and test the model needed</t>
+  </si>
+  <si>
+    <t>Train the model</t>
+  </si>
+  <si>
+    <t>Communicate results of the model testing and training</t>
+  </si>
+  <si>
+    <t>Save all successful models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">develop the app.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinate with the data, database, visualization, website  and machine learning teams to define what routes will be needed </t>
+  </si>
+  <si>
+    <t>Build needed routes</t>
+  </si>
+  <si>
+    <t>Test needed routes</t>
+  </si>
+  <si>
+    <t>Document and communicate all routes built and the testing results</t>
+  </si>
+  <si>
+    <t>Build the repository</t>
+  </si>
+  <si>
+    <t>maintain all the folders in the master</t>
+  </si>
+  <si>
+    <t>Keep all the data within clean and orderly and well documented</t>
+  </si>
+  <si>
+    <t>keep the Wiki and Read.me up to date</t>
+  </si>
+  <si>
+    <t>PRESENTATION</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -589,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC4D914-7F95-455E-A286-CC969C14EE1B}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,6 +932,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -785,68 +950,453 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B59289F-F07F-4143-973F-930863A91C3F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="50.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684700A5-041E-4D4A-B878-1C32E48FDFCE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="62" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902DCA36-E964-40BB-A661-74EECA8F9AE8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2925621-CC45-46CC-958B-D82272CC18C4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="39" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55277AC5-1ECF-4148-B622-9D433F758FA8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7950AAF3-EBFA-429F-A624-9EBC4D4E5F00}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB6B347-5A74-4935-87A2-281DFBAEA809}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1146,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3A1B65-7643-435C-B4AD-CE93D56E5D67}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1215,26 +1765,170 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F44A865-4C86-4F4B-A174-E8F009F0E276}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA95E9-1FE6-47F0-9C18-6E28C37CD095}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C22"/>
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1253,24 +1947,113 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5509ECFD-ECE7-4A4D-8E1D-BF87AC1086D2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AA4A95-2D2D-4F30-A140-920764939CA4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PROJECT DOCUMENTATION/ProjectTasks.xlsx
+++ b/PROJECT DOCUMENTATION/ProjectTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\FinalProject-MachineLearning\PROJECT DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC40086-BD59-43B9-AA01-570C5A3B326A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F9F9AC-7709-4E05-B5AD-85574F85737F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="819" xr2:uid="{D18BDD5F-B66E-45B0-BA1A-DB6C8378216C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" tabRatio="819" xr2:uid="{D18BDD5F-B66E-45B0-BA1A-DB6C8378216C}"/>
   </bookViews>
   <sheets>
     <sheet name="TASKS" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="119">
   <si>
     <t>TASK</t>
   </si>
@@ -372,6 +372,36 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>Create an outline of what we are presenting that matches the web site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a visual slide show using some technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each slide should visually display our "brand" and be focused on the topic </t>
+  </si>
+  <si>
+    <t>Be willing to flex and change as needed based on the needs of the project</t>
+  </si>
+  <si>
+    <t>Be sure to include all the visualizations possible.</t>
+  </si>
+  <si>
+    <t>Be sure to include the topic of the machine learning model</t>
+  </si>
+  <si>
+    <t>Be sure to include conclusions of the project</t>
+  </si>
+  <si>
+    <t>Be sure to proof read and provide credits for any quotes taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share with the team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">publish to the git. </t>
   </si>
 </sst>
 </file>
@@ -953,7 +983,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,12 +1427,95 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB6B347-5A74-4935-87A2-281DFBAEA809}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
